--- a/src/test/resources/mouseOver/mouseOver.xlsx
+++ b/src/test/resources/mouseOver/mouseOver.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\mouseOver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAEA6B4-FB2F-429F-B048-4FBFC66FAFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49963EFF-0AC0-4AF6-A9B5-9ECBD13626C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,98 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>TestCase</t>
   </si>
   <si>
     <t>open</t>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF871094"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"target"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF067D17"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF067D17"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>btn1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>wait</t>
@@ -123,13 +37,21 @@
   </si>
   <si>
     <t>http://localhost:9001/mouseOver/</t>
+  </si>
+  <si>
+    <t>id=btn1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"target": "id=btn1"}</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -150,27 +72,6 @@
       <name val="Sarasa Mono CL"/>
       <family val="3"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF871094"/>
-      <name val="Sarasa Mono CL"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF067D17"/>
-      <name val="Sarasa Mono CL"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF067D17"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <u/>
@@ -224,7 +125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -241,10 +142,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -562,19 +463,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="33.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,29 +484,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="3">
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3">
         <v>2000</v>
       </c>
     </row>

--- a/src/test/resources/mouseOver/mouseOver.xlsx
+++ b/src/test/resources/mouseOver/mouseOver.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\mouseOver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49963EFF-0AC0-4AF6-A9B5-9ECBD13626C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73B941D-A620-49A4-B8FA-01544DB85F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4110" yWindow="4110" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -67,13 +67,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF080808"/>
-      <name val="Sarasa Mono CL"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -82,22 +75,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF080808"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -109,10 +123,130 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -125,27 +259,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -465,55 +620,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="33.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="8">
         <v>2000</v>
       </c>
     </row>
